--- a/graph/analise-preeliminar.xlsx
+++ b/graph/analise-preeliminar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
   <si>
     <t>Grafo</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Analise preeliminar - Nº Caratheodory - P3</t>
+  </si>
+  <si>
+    <t>T. paralelo (binaria)</t>
+  </si>
+  <si>
+    <t>Nº Caratheodory</t>
+  </si>
+  <si>
+    <t>K3P9</t>
   </si>
 </sst>
 </file>
@@ -132,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,6 +152,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,27 +456,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F25"/>
+  <dimension ref="C2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5"/>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -472,269 +487,379 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
       <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <v>0.109</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
       <c r="D8" s="2">
         <v>20</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>1.5</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
       <c r="D9" s="2">
         <v>25</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <v>71.63</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
       <c r="D10" s="2">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
       <c r="D13" s="2">
         <v>15</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
       <c r="D14" s="2">
         <v>20</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
         <v>0.72</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
       <c r="D15" s="2">
         <v>25</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <v>38</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
       <c r="D16" s="2">
         <v>30</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+      <c r="G16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
       <c r="D18" s="2">
         <v>10</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
       <c r="D19" s="2">
         <v>15</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
       <c r="D20" s="2">
         <v>20</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
         <v>1.452</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
       <c r="D21" s="2">
         <v>25</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <v>61.75</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
       <c r="D23" s="2">
         <v>7</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
       <c r="D24" s="2">
         <v>15</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
       <c r="D25" s="2">
         <v>31</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
         <v>612</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2">
+        <v>612</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/graph/analise-preeliminar.xlsx
+++ b/graph/analise-preeliminar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
   <si>
     <t>Grafo</t>
   </si>
@@ -54,7 +54,55 @@
     <t>Nº Caratheodory</t>
   </si>
   <si>
-    <t>K3P9</t>
+    <t>K3P10</t>
+  </si>
+  <si>
+    <t>K3P5</t>
+  </si>
+  <si>
+    <t>K4P5</t>
+  </si>
+  <si>
+    <t>K4P6</t>
+  </si>
+  <si>
+    <t>K4P8</t>
+  </si>
+  <si>
+    <t>K5P5</t>
+  </si>
+  <si>
+    <t>K5P6</t>
+  </si>
+  <si>
+    <t>K5P7</t>
+  </si>
+  <si>
+    <t>K6P3</t>
+  </si>
+  <si>
+    <t>K6P4</t>
+  </si>
+  <si>
+    <t>K6P5</t>
+  </si>
+  <si>
+    <t>K6P6</t>
+  </si>
+  <si>
+    <t>K6P7</t>
+  </si>
+  <si>
+    <t>K7P4</t>
+  </si>
+  <si>
+    <t>K7P5</t>
+  </si>
+  <si>
+    <t>K7P6</t>
+  </si>
+  <si>
+    <t>K4P7</t>
   </si>
 </sst>
 </file>
@@ -141,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +200,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H26"/>
+  <dimension ref="C2:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,9 +518,9 @@
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -500,7 +551,7 @@
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2">
@@ -518,7 +569,7 @@
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="6"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="2">
         <v>10</v>
       </c>
@@ -534,7 +585,7 @@
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="6"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="2">
         <v>15</v>
       </c>
@@ -550,7 +601,7 @@
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="2">
         <v>20</v>
       </c>
@@ -566,7 +617,7 @@
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="6"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="2">
         <v>25</v>
       </c>
@@ -582,7 +633,7 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="2">
         <v>30</v>
       </c>
@@ -598,13 +649,15 @@
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
@@ -616,11 +669,13 @@
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
       <c r="F12" s="2">
         <v>1E-3</v>
       </c>
@@ -632,11 +687,13 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="2">
         <v>15</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
       <c r="F13" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -648,11 +705,13 @@
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="2">
         <v>20</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
       <c r="F14" s="2">
         <v>0.72</v>
       </c>
@@ -664,11 +723,13 @@
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="2">
         <v>25</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
       <c r="F15" s="2">
         <v>38</v>
       </c>
@@ -680,11 +741,13 @@
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="2">
         <v>30</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>4</v>
       </c>
@@ -696,13 +759,15 @@
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
@@ -714,11 +779,13 @@
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="2">
         <v>10</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
       <c r="F18" s="2">
         <v>1E-3</v>
       </c>
@@ -730,11 +797,13 @@
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="6"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="2">
         <v>15</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
       <c r="F19" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -746,11 +815,13 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="2">
         <v>20</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
       <c r="F20" s="2">
         <v>1.452</v>
       </c>
@@ -762,11 +833,13 @@
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="2">
         <v>25</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
       <c r="F21" s="2">
         <v>61.75</v>
       </c>
@@ -778,13 +851,15 @@
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
@@ -796,11 +871,13 @@
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="6"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="2">
         <v>7</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
       <c r="F23" s="2">
         <v>0</v>
       </c>
@@ -812,11 +889,13 @@
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="6"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="2">
         <v>15</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>8</v>
+      </c>
       <c r="F24" s="2">
         <v>0.14000000000000001</v>
       </c>
@@ -828,14 +907,12 @@
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="6"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="2">
         <v>31</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2">
-        <v>612</v>
-      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="3" t="s">
         <v>4</v>
       </c>
@@ -845,21 +922,451 @@
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D32" s="2">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="2">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2">
+        <v>24</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2">
+        <v>32</v>
+      </c>
+      <c r="E36" s="2">
+        <v>6</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="6"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2">
+        <v>25</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2">
+        <v>30</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2">
+        <v>35</v>
+      </c>
+      <c r="E41" s="2">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="6"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="2">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="2">
+        <v>24</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="2">
+        <v>30</v>
+      </c>
+      <c r="E45" s="2">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2">
+        <v>36</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="2">
+        <v>42</v>
+      </c>
+      <c r="E47" s="2">
+        <v>6</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="6"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="2">
+        <v>28</v>
+      </c>
+      <c r="E49" s="2">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="2">
+        <v>35</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="2">
-        <v>7</v>
-      </c>
-      <c r="F26" s="2">
-        <v>612</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="D51" s="2">
+        <v>42</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="6"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="6"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="6"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="6"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="6"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="6"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
     </row>
